--- a/biology/Botanique/Sultanine/Sultanine.xlsx
+++ b/biology/Botanique/Sultanine/Sultanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La sultanine est un cépage blanc de raisin de table. Il est très cultivé dans le monde pour la production de raisins frais et la préparation de raisins secs. Le nom évoque la vigne du sultan.
@@ -513,7 +525,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de la sultanine pourrait être l'Afghanistan. En pachto, le mot kismish (voir synonymes) signifie raisin à sécher.
 Le premier producteur mondial est la Turquie avec une superficie cultivée estimée à 120 000 hectares.
@@ -548,7 +562,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux, vert clair
 Jeunes feuilles glabres et brillantes
@@ -580,7 +596,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque : 10 jours après le chasselas.
 </t>
@@ -611,7 +629,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de petite taille. La grappe est tronconique, lâche, avec de nombreux ailerons secondaires. Les baies ne contiennent que des pépins atrophiés, très petits, ou sont totalement apyrènes. La sultanine est très vigoureuse. Elle doit être taillée long. Le cépage est sensible au mildiou, à l'oïdium et à l'anthracnose.
 Pour produire des raisins de table de qualité, des techniques culturales sont indispensables, dont l'incision annulaire, l’éclaircissage et l’application de régulateur de croissance comme l'acide gibbérellique (AG3) quelques jours après la floraison.
@@ -643,7 +663,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La sultanine est aussi connue sous les noms de akouno, banati, bealo bez seme, cekizdecsis, fehér szultan, kechmiche jaune, kechmish blanc, keeshmeesh, kichmichi (Kandahar, Afghanistan), kishmish blanc, kishmish safid, kis-mis alb, kismis, kismis belii ovalny, perzsiai fehér, roumined, seedless white, sultana, sultani, sultanina, sultanina blanche, sultanine blanche, szultan szölö, tchekirdeksis, Thompson seedless.
 </t>
